--- a/Question_Sets/Role-specific skills/Warehouse Picker.xlsx
+++ b/Question_Sets/Role-specific skills/Warehouse Picker.xlsx
@@ -16,23 +16,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The table below presents instructions paired with corresponding images. Each instruction should correctly match the image to which it is paired. However, one of the pairings is incorrect, as the instructions do not match the image presented. Which pairing is incorrect?', 'ques_type': 2, 'options': ['A', 'B', 'C', 'D'], 'score': 'A'}, {'title': 'As a warehouse picker, you have gathered all items according to your pickup list and are labeling them for shipment. During this process, you notice that one package has torn corners.What should you do next?', 'ques_type': 2, 'options': ['Repack the item yourself, using available packing material.', 'Give the package to the packing team for repacking.', 'Assess whether the package requires repacking.', 'Secure the torn corners with packaging tape.'], 'score': 'Assess whether the package requires repacking.'}, {'title': 'You manage storage in an automobile warehouse. Four sections are in the warehouse, including the following:An open section for large-sized items that cannot be put into cartons, such as machineryA rack section for medium-sized items that can be put in cartons, such as automobile spare partsA bin section for small items, such as screwsA cool, dry warehouse section for temperature-sensitive chemicals, such as paint and resinWhere should you store the paint thinner?', 'ques_type': 2, 'options': ['Open section', 'Rack section', 'Bin section', 'Cool, dry section'], 'score': 'Cool, dry section'}]</t>
+    <t>questions = [
+    {
+        "title": "The table below presents instructions paired with corresponding images. Each instruction should correctly match the image to which it is paired. However, one of the pairings is incorrect, as the instructions do not match the image presented. Which pairing is incorrect?",
+        "ques_type": 2,
+        "options": [
+            "A",
+            "B",
+            "C",
+            "D"
+        ],
+        "score": "A"
+    },
+    {
+        "title": "As a warehouse picker, you have gathered all items according to your pickup list and are labeling them for shipment. During this process, you notice that one package has torn corners.What should you do next?",
+        "ques_type": 2,
+        "options": [
+            "Repack the item yourself, using available packing material.",
+            "Give the package to the packing team for repacking.",
+            "Assess whether the package requires repacking.",
+            "Secure the torn corners with packaging tape."
+        ],
+        "score": "Assess whether the package requires repacking."
+    },
+    {
+        "title": "You manage storage in an automobile warehouse. Four sections are in the warehouse, including the following:An open section for large-sized items that cannot be put into cartons, such as machineryA rack section for medium-sized items that can be put in cartons, such as automobile spare partsA bin section for small items, such as screwsA cool, dry warehouse section for temperature-sensitive chemicals, such as paint and resinWhere should you store the paint thinner?",
+        "ques_type": 2,
+        "options": [
+            "Open section",
+            "Rack section",
+            "Bin section",
+            "Cool, dry section"
+        ],
+        "score": "Cool, dry section"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +82,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +382,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
